--- a/DNNCV/对象类别.xlsx
+++ b/DNNCV/对象类别.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jizhi\source\repos\DNNCV\DNNCV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\source\repos\DNNCV\DNNCV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF9E6C0-1230-4037-9B1D-494C2D67DEE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D50116A-F7AB-42E6-9084-B46D8EFCA46E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{944E8BB0-3667-4865-89F9-074443616147}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{944E8BB0-3667-4865-89F9-074443616147}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -970,7 +970,7 @@
   <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -978,8 +978,8 @@
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -993,10 +993,10 @@
         <v>83</v>
       </c>
       <c r="D1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" t="s">
         <v>82</v>
-      </c>
-      <c r="E1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1009,11 +1009,11 @@
       <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" t="s">
         <v>85</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1026,11 +1026,11 @@
       <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" t="s">
         <v>86</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1043,11 +1043,11 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" t="s">
         <v>87</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1060,11 +1060,11 @@
       <c r="C5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D5" t="s">
         <v>88</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1077,11 +1077,11 @@
       <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" t="s">
         <v>89</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1094,11 +1094,11 @@
       <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" t="s">
         <v>90</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1111,11 +1111,11 @@
       <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D8" t="s">
         <v>91</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1128,11 +1128,11 @@
       <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D9" t="s">
         <v>92</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1145,11 +1145,11 @@
       <c r="C10" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D10" t="s">
         <v>93</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1162,11 +1162,11 @@
       <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D11" t="s">
         <v>94</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1179,11 +1179,11 @@
       <c r="C12" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D12" t="s">
         <v>95</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1196,11 +1196,11 @@
       <c r="C13" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D13" t="s">
         <v>96</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1213,11 +1213,11 @@
       <c r="C14" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D14" t="s">
         <v>97</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1230,11 +1230,11 @@
       <c r="C15" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D15" t="s">
         <v>98</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1247,11 +1247,11 @@
       <c r="C16" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="D16" t="s">
         <v>99</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1264,11 +1264,11 @@
       <c r="C17" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D17" t="s">
         <v>100</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1281,11 +1281,11 @@
       <c r="C18" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="D18" t="s">
         <v>101</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1298,11 +1298,11 @@
       <c r="C19" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D19" t="s">
         <v>102</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1315,11 +1315,11 @@
       <c r="C20" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="D20" t="s">
         <v>103</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1332,11 +1332,11 @@
       <c r="C21" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="D21" t="s">
         <v>104</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1349,11 +1349,11 @@
       <c r="C22" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="D22" t="s">
         <v>105</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1366,11 +1366,11 @@
       <c r="C23" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="D23" t="s">
         <v>106</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1383,11 +1383,11 @@
       <c r="C24" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="D24" t="s">
         <v>107</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1400,11 +1400,11 @@
       <c r="C25" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="D25" t="s">
         <v>108</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1417,11 +1417,11 @@
       <c r="C26" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="D26" t="s">
         <v>109</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1434,11 +1434,11 @@
       <c r="C27" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="D27" t="s">
         <v>110</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1451,11 +1451,11 @@
       <c r="C28" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="D28" t="s">
         <v>111</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1468,11 +1468,11 @@
       <c r="C29" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="D29" t="s">
         <v>112</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1485,11 +1485,11 @@
       <c r="C30" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="D30" t="s">
         <v>113</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1502,11 +1502,11 @@
       <c r="C31" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="D31" t="s">
         <v>114</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1519,11 +1519,11 @@
       <c r="C32" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="D32" t="s">
         <v>116</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1536,11 +1536,11 @@
       <c r="C33" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="D33" t="s">
         <v>115</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1553,11 +1553,11 @@
       <c r="C34" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="D34" t="s">
         <v>117</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1570,11 +1570,11 @@
       <c r="C35" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="D35" t="s">
         <v>118</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1587,11 +1587,11 @@
       <c r="C36" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="D36" t="s">
         <v>119</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1604,11 +1604,11 @@
       <c r="C37" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="D37" t="s">
         <v>120</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1621,11 +1621,11 @@
       <c r="C38" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="D38" t="s">
         <v>121</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1638,11 +1638,11 @@
       <c r="C39" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="D39" t="s">
         <v>122</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -1655,11 +1655,11 @@
       <c r="C40" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="D40" t="s">
         <v>123</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1672,11 +1672,11 @@
       <c r="C41" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="D41" t="s">
         <v>125</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1689,11 +1689,11 @@
       <c r="C42" t="s">
         <v>40</v>
       </c>
-      <c r="D42" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="D42" t="s">
         <v>124</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1706,11 +1706,11 @@
       <c r="C43" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="D43" t="s">
         <v>126</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -1723,11 +1723,11 @@
       <c r="C44" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="D44" t="s">
         <v>127</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1740,11 +1740,11 @@
       <c r="C45" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="D45" t="s">
         <v>128</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1757,11 +1757,11 @@
       <c r="C46" t="s">
         <v>44</v>
       </c>
-      <c r="D46" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="D46" t="s">
         <v>129</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1774,11 +1774,11 @@
       <c r="C47" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="D47" t="s">
         <v>130</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -1791,11 +1791,11 @@
       <c r="C48" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="D48" t="s">
         <v>131</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -1808,11 +1808,11 @@
       <c r="C49" t="s">
         <v>47</v>
       </c>
-      <c r="D49" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="D49" t="s">
         <v>132</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -1825,11 +1825,11 @@
       <c r="C50" t="s">
         <v>48</v>
       </c>
-      <c r="D50" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="D50" t="s">
         <v>133</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -1842,11 +1842,11 @@
       <c r="C51" t="s">
         <v>49</v>
       </c>
-      <c r="D51" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="D51" t="s">
         <v>134</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -1859,11 +1859,11 @@
       <c r="C52" t="s">
         <v>50</v>
       </c>
-      <c r="D52" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="D52" t="s">
         <v>135</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -1876,11 +1876,11 @@
       <c r="C53" t="s">
         <v>51</v>
       </c>
-      <c r="D53" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="D53" t="s">
         <v>136</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -1893,11 +1893,11 @@
       <c r="C54" t="s">
         <v>52</v>
       </c>
-      <c r="D54" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="D54" t="s">
         <v>137</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -1910,11 +1910,11 @@
       <c r="C55" t="s">
         <v>53</v>
       </c>
-      <c r="D55" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="D55" t="s">
         <v>138</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -1927,11 +1927,11 @@
       <c r="C56" t="s">
         <v>54</v>
       </c>
-      <c r="D56" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="D56" t="s">
         <v>139</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -1944,11 +1944,11 @@
       <c r="C57" t="s">
         <v>55</v>
       </c>
-      <c r="D57" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="D57" t="s">
         <v>140</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -1961,11 +1961,11 @@
       <c r="C58" t="s">
         <v>56</v>
       </c>
-      <c r="D58" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="D58" t="s">
         <v>141</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -1978,11 +1978,11 @@
       <c r="C59" t="s">
         <v>57</v>
       </c>
-      <c r="D59" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="D59" t="s">
         <v>142</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -1995,11 +1995,11 @@
       <c r="C60" t="s">
         <v>58</v>
       </c>
-      <c r="D60" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="D60" t="s">
         <v>143</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -2012,11 +2012,11 @@
       <c r="C61" t="s">
         <v>59</v>
       </c>
-      <c r="D61" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="D61" t="s">
         <v>144</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -2029,11 +2029,11 @@
       <c r="C62" t="s">
         <v>60</v>
       </c>
-      <c r="D62" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="D62" t="s">
         <v>145</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -2046,11 +2046,11 @@
       <c r="C63" t="s">
         <v>61</v>
       </c>
-      <c r="D63" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="D63" t="s">
         <v>146</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -2063,11 +2063,11 @@
       <c r="C64" t="s">
         <v>62</v>
       </c>
-      <c r="D64" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="D64" t="s">
         <v>147</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -2080,11 +2080,11 @@
       <c r="C65" t="s">
         <v>63</v>
       </c>
-      <c r="D65" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E65" t="s">
+      <c r="D65" t="s">
         <v>148</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -2097,11 +2097,11 @@
       <c r="C66" t="s">
         <v>64</v>
       </c>
-      <c r="D66" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="D66" t="s">
         <v>149</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -2114,11 +2114,11 @@
       <c r="C67" t="s">
         <v>65</v>
       </c>
-      <c r="D67" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E67" t="s">
+      <c r="D67" t="s">
         <v>150</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -2131,11 +2131,11 @@
       <c r="C68" t="s">
         <v>66</v>
       </c>
-      <c r="D68" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E68" t="s">
+      <c r="D68" t="s">
         <v>151</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -2148,11 +2148,11 @@
       <c r="C69" t="s">
         <v>67</v>
       </c>
-      <c r="D69" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E69" t="s">
+      <c r="D69" t="s">
         <v>152</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -2165,11 +2165,11 @@
       <c r="C70" t="s">
         <v>68</v>
       </c>
-      <c r="D70" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E70" t="s">
+      <c r="D70" t="s">
         <v>153</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -2182,11 +2182,11 @@
       <c r="C71" t="s">
         <v>69</v>
       </c>
-      <c r="D71" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E71" t="s">
+      <c r="D71" t="s">
         <v>154</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -2199,11 +2199,11 @@
       <c r="C72" t="s">
         <v>70</v>
       </c>
-      <c r="D72" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E72" t="s">
+      <c r="D72" t="s">
         <v>155</v>
+      </c>
+      <c r="E72" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -2216,11 +2216,11 @@
       <c r="C73" t="s">
         <v>71</v>
       </c>
-      <c r="D73" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="D73" t="s">
         <v>156</v>
+      </c>
+      <c r="E73" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -2233,11 +2233,11 @@
       <c r="C74" t="s">
         <v>72</v>
       </c>
-      <c r="D74" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E74" t="s">
+      <c r="D74" t="s">
         <v>157</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -2250,11 +2250,11 @@
       <c r="C75" t="s">
         <v>73</v>
       </c>
-      <c r="D75" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E75" t="s">
+      <c r="D75" t="s">
         <v>158</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -2267,11 +2267,11 @@
       <c r="C76" t="s">
         <v>74</v>
       </c>
-      <c r="D76" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E76" t="s">
+      <c r="D76" t="s">
         <v>159</v>
+      </c>
+      <c r="E76" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -2284,11 +2284,11 @@
       <c r="C77" t="s">
         <v>75</v>
       </c>
-      <c r="D77" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E77" t="s">
+      <c r="D77" t="s">
         <v>160</v>
+      </c>
+      <c r="E77" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -2301,11 +2301,11 @@
       <c r="C78" t="s">
         <v>76</v>
       </c>
-      <c r="D78" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E78" t="s">
+      <c r="D78" t="s">
         <v>161</v>
+      </c>
+      <c r="E78" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -2318,11 +2318,11 @@
       <c r="C79" t="s">
         <v>77</v>
       </c>
-      <c r="D79" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E79" t="s">
+      <c r="D79" t="s">
         <v>162</v>
+      </c>
+      <c r="E79" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -2335,11 +2335,11 @@
       <c r="C80" t="s">
         <v>78</v>
       </c>
-      <c r="D80" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E80" t="s">
+      <c r="D80" t="s">
         <v>163</v>
+      </c>
+      <c r="E80" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -2352,11 +2352,11 @@
       <c r="C81" t="s">
         <v>79</v>
       </c>
-      <c r="D81" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E81" t="s">
+      <c r="D81" t="s">
         <v>164</v>
+      </c>
+      <c r="E81" s="1">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
